--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42983,6 +42983,41 @@
         <v>266000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>75000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43018,6 +43018,41 @@
         <v>75000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>105000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43053,6 +43053,41 @@
         <v>105000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>65000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43088,6 +43088,41 @@
         <v>65000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>67900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43123,6 +43123,41 @@
         <v>67900</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>50000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43158,6 +43158,41 @@
         <v>50000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>25100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43193,6 +43193,41 @@
         <v>25100</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>15000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43228,6 +43228,41 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>80000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43263,6 +43263,41 @@
         <v>80000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>130000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43298,6 +43298,41 @@
         <v>130000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>97000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43333,6 +43333,41 @@
         <v>97000</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>147000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43368,6 +43368,41 @@
         <v>147000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>303100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43403,6 +43403,76 @@
         <v>303100</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>102300</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>849000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43473,6 +43473,76 @@
         <v>849000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>1533500</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>1729800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43543,6 +43543,41 @@
         <v>1729800</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>233800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43578,6 +43578,41 @@
         <v>233800</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>760200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43613,6 +43613,41 @@
         <v>760200</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>361100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43648,6 +43648,41 @@
         <v>361100</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>2302300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43683,6 +43683,76 @@
         <v>2302300</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>1047700</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>403200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43753,6 +43753,41 @@
         <v>403200</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>608000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43788,6 +43788,41 @@
         <v>608000</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>3036700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2235"/>
+  <dimension ref="A1:I2236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78613,6 +78613,41 @@
         <v>3036700</v>
       </c>
     </row>
+    <row r="2236">
+      <c r="A2236" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2236" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2236" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D2236" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E2236" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2236" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G2236" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2236" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2236" t="n">
+        <v>465300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2236"/>
+  <dimension ref="A1:I2237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78648,6 +78648,41 @@
         <v>465300</v>
       </c>
     </row>
+    <row r="2237">
+      <c r="A2237" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2237" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2237" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D2237" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E2237" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F2237" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2237" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2237" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2237" t="n">
+        <v>1865700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2237"/>
+  <dimension ref="A1:I2238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78683,6 +78683,41 @@
         <v>1865700</v>
       </c>
     </row>
+    <row r="2238">
+      <c r="A2238" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2238" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2238" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D2238" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E2238" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2238" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G2238" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2238" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2238" t="n">
+        <v>4113900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2238"/>
+  <dimension ref="A1:I2239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78718,6 +78718,41 @@
         <v>4113900</v>
       </c>
     </row>
+    <row r="2239">
+      <c r="A2239" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2239" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2239" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D2239" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E2239" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2239" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2239" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2239" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2239" t="n">
+        <v>4402300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2239"/>
+  <dimension ref="A1:I2240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78753,6 +78753,41 @@
         <v>4402300</v>
       </c>
     </row>
+    <row r="2240">
+      <c r="A2240" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2240" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2240" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D2240" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E2240" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2240" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2240" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2240" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2240" t="n">
+        <v>3171100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2240"/>
+  <dimension ref="A1:I2241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78788,6 +78788,41 @@
         <v>3171100</v>
       </c>
     </row>
+    <row r="2241">
+      <c r="A2241" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2241" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2241" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D2241" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E2241" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2241" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2241" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2241" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2241" t="n">
+        <v>14199300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2241"/>
+  <dimension ref="A1:I2242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78823,6 +78823,41 @@
         <v>14199300</v>
       </c>
     </row>
+    <row r="2242">
+      <c r="A2242" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2242" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2242" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D2242" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E2242" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2242" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2242" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2242" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2242" t="n">
+        <v>2366100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2242"/>
+  <dimension ref="A1:I2243"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78858,6 +78858,41 @@
         <v>2366100</v>
       </c>
     </row>
+    <row r="2243">
+      <c r="A2243" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2243" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2243" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D2243" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E2243" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2243" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2243" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2243" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2243" t="n">
+        <v>3536200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2243"/>
+  <dimension ref="A1:I2244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78893,6 +78893,41 @@
         <v>3536200</v>
       </c>
     </row>
+    <row r="2244">
+      <c r="A2244" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2244" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2244" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D2244" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E2244" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2244" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2244" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2244" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I2244" t="n">
+        <v>2370500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2244"/>
+  <dimension ref="A1:I2245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78928,6 +78928,41 @@
         <v>2370500</v>
       </c>
     </row>
+    <row r="2245">
+      <c r="A2245" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2245" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2245" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D2245" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E2245" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2245" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2245" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2245" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2245" t="n">
+        <v>1340800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2245"/>
+  <dimension ref="A1:I2246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78963,6 +78963,41 @@
         <v>1340800</v>
       </c>
     </row>
+    <row r="2246">
+      <c r="A2246" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2246" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2246" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D2246" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E2246" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2246" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2246" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2246" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2246" t="n">
+        <v>571000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2246"/>
+  <dimension ref="A1:I2247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78998,6 +78998,41 @@
         <v>571000</v>
       </c>
     </row>
+    <row r="2247">
+      <c r="A2247" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2247" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2247" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D2247" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E2247" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="F2247" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G2247" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2247" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2247" t="n">
+        <v>1060600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2247"/>
+  <dimension ref="A1:I2248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79033,6 +79033,41 @@
         <v>1060600</v>
       </c>
     </row>
+    <row r="2248">
+      <c r="A2248" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2248" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2248" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D2248" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E2248" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2248" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G2248" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2248" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2248" t="n">
+        <v>1037700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2248"/>
+  <dimension ref="A1:I2249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79068,6 +79068,41 @@
         <v>1037700</v>
       </c>
     </row>
+    <row r="2249">
+      <c r="A2249" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2249" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2249" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D2249" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E2249" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2249" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G2249" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2249" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2249" t="n">
+        <v>740000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2249"/>
+  <dimension ref="A1:I2250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79103,6 +79103,41 @@
         <v>740000</v>
       </c>
     </row>
+    <row r="2250">
+      <c r="A2250" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2250" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2250" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D2250" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E2250" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2250" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2250" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2250" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2250" t="n">
+        <v>2507200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2250"/>
+  <dimension ref="A1:I2251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79138,6 +79138,41 @@
         <v>2507200</v>
       </c>
     </row>
+    <row r="2251">
+      <c r="A2251" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2251" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2251" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D2251" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E2251" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2251" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G2251" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2251" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2251" t="n">
+        <v>269000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2251"/>
+  <dimension ref="A1:I2252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79173,6 +79173,41 @@
         <v>269000</v>
       </c>
     </row>
+    <row r="2252">
+      <c r="A2252" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2252" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2252" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D2252" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E2252" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2252" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2252" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2252" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2252" t="n">
+        <v>1051900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2252"/>
+  <dimension ref="A1:I2253"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79208,6 +79208,41 @@
         <v>1051900</v>
       </c>
     </row>
+    <row r="2253">
+      <c r="A2253" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2253" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2253" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D2253" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E2253" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2253" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G2253" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2253" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2253" t="n">
+        <v>101100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2253"/>
+  <dimension ref="A1:I2254"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79243,6 +79243,41 @@
         <v>101100</v>
       </c>
     </row>
+    <row r="2254">
+      <c r="A2254" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2254" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2254" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D2254" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E2254" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2254" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2254" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2254" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2254" t="n">
+        <v>155000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2254"/>
+  <dimension ref="A1:I2255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79278,6 +79278,41 @@
         <v>155000</v>
       </c>
     </row>
+    <row r="2255">
+      <c r="A2255" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2255" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2255" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D2255" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E2255" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2255" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2255" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2255" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2255" t="n">
+        <v>788300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2255"/>
+  <dimension ref="A1:I2256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79313,6 +79313,41 @@
         <v>788300</v>
       </c>
     </row>
+    <row r="2256">
+      <c r="A2256" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2256" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2256" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D2256" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E2256" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2256" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2256" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2256" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2256" t="n">
+        <v>1216100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2256"/>
+  <dimension ref="A1:I2257"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79348,6 +79348,41 @@
         <v>1216100</v>
       </c>
     </row>
+    <row r="2257">
+      <c r="A2257" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2257" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2257" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D2257" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E2257" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2257" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G2257" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2257" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2257" t="n">
+        <v>290600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2257"/>
+  <dimension ref="A1:I2258"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79383,6 +79383,41 @@
         <v>290600</v>
       </c>
     </row>
+    <row r="2258">
+      <c r="A2258" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2258" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2258" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D2258" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E2258" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2258" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2258" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2258" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2258" t="n">
+        <v>6480200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2258"/>
+  <dimension ref="A1:I2259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79418,6 +79418,41 @@
         <v>6480200</v>
       </c>
     </row>
+    <row r="2259">
+      <c r="A2259" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2259" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2259" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D2259" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E2259" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2259" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2259" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2259" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2259" t="n">
+        <v>2323700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2259"/>
+  <dimension ref="A1:I2260"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79453,6 +79453,41 @@
         <v>2323700</v>
       </c>
     </row>
+    <row r="2260">
+      <c r="A2260" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2260" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2260" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D2260" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E2260" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F2260" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2260" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2260" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2260" t="n">
+        <v>2001100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2260"/>
+  <dimension ref="A1:I2262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79488,6 +79488,76 @@
         <v>2001100</v>
       </c>
     </row>
+    <row r="2261">
+      <c r="A2261" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2261" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2261" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D2261" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E2261" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2261" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2261" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H2261" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2261" t="n">
+        <v>2742900</v>
+      </c>
+    </row>
+    <row r="2262">
+      <c r="A2262" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2262" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2262" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D2262" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E2262" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2262" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2262" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2262" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2262" t="n">
+        <v>1645100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2262"/>
+  <dimension ref="A1:I2263"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79558,6 +79558,41 @@
         <v>1645100</v>
       </c>
     </row>
+    <row r="2263">
+      <c r="A2263" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2263" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2263" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D2263" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E2263" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2263" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G2263" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2263" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2263" t="n">
+        <v>921900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2263"/>
+  <dimension ref="A1:I2266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79593,6 +79593,111 @@
         <v>921900</v>
       </c>
     </row>
+    <row r="2264">
+      <c r="A2264" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2264" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2264" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D2264" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E2264" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2264" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G2264" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2264" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2264" t="n">
+        <v>509700</v>
+      </c>
+    </row>
+    <row r="2265">
+      <c r="A2265" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2265" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2265" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D2265" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E2265" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F2265" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G2265" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2265" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I2265" t="n">
+        <v>13647800</v>
+      </c>
+    </row>
+    <row r="2266">
+      <c r="A2266" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2266" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2266" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D2266" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E2266" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F2266" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G2266" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2266" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I2266" t="n">
+        <v>6001600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2266"/>
+  <dimension ref="A1:I2267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79698,6 +79698,41 @@
         <v>6001600</v>
       </c>
     </row>
+    <row r="2267">
+      <c r="A2267" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2267" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2267" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D2267" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E2267" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F2267" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G2267" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H2267" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I2267" t="n">
+        <v>2572100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2267"/>
+  <dimension ref="A1:I2268"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79733,6 +79733,41 @@
         <v>2572100</v>
       </c>
     </row>
+    <row r="2268">
+      <c r="A2268" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2268" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2268" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D2268" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E2268" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F2268" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2268" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2268" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I2268" t="n">
+        <v>1314300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5195.xlsx
+++ b/data/5195.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2268"/>
+  <dimension ref="A1:I2271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -79768,6 +79768,111 @@
         <v>1314300</v>
       </c>
     </row>
+    <row r="2269">
+      <c r="A2269" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2269" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2269" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D2269" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E2269" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F2269" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2269" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H2269" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="I2269" t="n">
+        <v>721600</v>
+      </c>
+    </row>
+    <row r="2270">
+      <c r="A2270" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2270" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2270" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D2270" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E2270" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="F2270" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2270" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2270" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I2270" t="n">
+        <v>920600</v>
+      </c>
+    </row>
+    <row r="2271">
+      <c r="A2271" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2271" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2271" t="inlineStr">
+        <is>
+          <t>5195</t>
+        </is>
+      </c>
+      <c r="D2271" t="inlineStr">
+        <is>
+          <t>CENSOF</t>
+        </is>
+      </c>
+      <c r="E2271" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F2271" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2271" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H2271" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I2271" t="n">
+        <v>1308400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
